--- a/RiotSample0/Riot데이터.xlsx
+++ b/RiotSample0/Riot데이터.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강건\OneDrive\문서\work\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RiotSample\RiotSample0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{B35E8F9B-2498-4631-9BC2-04057FFA672C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{9B2284BE-9759-46B2-9F57-5F6638E454FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A8D74-6827-44D6-B421-F64644AC9891}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1659616C-B5A4-4B14-BDD6-AB92D4590AC6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,54 @@
   </si>
   <si>
     <t>Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ClickInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 플레이어가 보는 화면 상태  (Combat,UI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭시 실행하는 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreviousClickTrans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전에 선택한 콜라이더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 선택한 콜라이더 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurrentClickTrans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전역변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이는것이 가능한지 확인하는 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +356,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,28 +725,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DE5D1-E576-45A2-AEB3-DD5316AF17FC}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="7" customWidth="1"/>
+    <col min="3" max="7" width="1.625" customWidth="1"/>
     <col min="8" max="8" width="16.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.5" customWidth="1"/>
-    <col min="11" max="11" width="3.375" customWidth="1"/>
-    <col min="12" max="13" width="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="46.375" style="7" customWidth="1"/>
+    <col min="10" max="13" width="1.625" customWidth="1"/>
     <col min="14" max="14" width="38.25" style="5" customWidth="1"/>
     <col min="15" max="15" width="18.625" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
+    <col min="17" max="17" width="28.25" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -717,8 +768,17 @@
       <c r="P1" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -741,13 +801,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="N3" s="5" t="s">
         <v>27</v>
       </c>
@@ -758,13 +824,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="9"/>
       <c r="N4" s="5" t="s">
         <v>28</v>
       </c>
@@ -775,7 +842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -792,7 +859,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -809,7 +876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -826,7 +893,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="N8" s="5" t="s">
         <v>43</v>
       </c>
@@ -837,7 +910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N9" s="5" t="s">
         <v>44</v>
       </c>
@@ -846,6 +919,39 @@
       </c>
       <c r="P9" s="7" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/RiotSample0/Riot데이터.xlsx
+++ b/RiotSample0/Riot데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RiotSample\RiotSample0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69A8D74-6827-44D6-B421-F64644AC9891}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B687E0DC-CE4A-43D1-8F91-C38A7D7F4289}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1659616C-B5A4-4B14-BDD6-AB92D4590AC6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,22 @@
   </si>
   <si>
     <t>움직이는것이 가능한지 확인하는 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResetClickTrans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재와 이전의 콜라이더 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목적지의 캐릭터가 출발위치로 움직이는것인지 확인용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,10 +741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DE5D1-E576-45A2-AEB3-DD5316AF17FC}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -739,7 +755,7 @@
     <col min="8" max="8" width="16.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="46.375" style="7" customWidth="1"/>
     <col min="10" max="13" width="1.625" customWidth="1"/>
-    <col min="14" max="14" width="38.25" style="5" customWidth="1"/>
+    <col min="14" max="14" width="47" style="5" customWidth="1"/>
     <col min="15" max="15" width="18.625" style="6" customWidth="1"/>
     <col min="16" max="16" width="9" style="7"/>
     <col min="17" max="17" width="28.25" customWidth="1"/>
@@ -911,6 +927,12 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="N9" s="5" t="s">
         <v>44</v>
       </c>
@@ -951,6 +973,17 @@
         <v>57</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>56</v>
       </c>
     </row>

--- a/RiotSample0/Riot데이터.xlsx
+++ b/RiotSample0/Riot데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RiotSample\RiotSample0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B687E0DC-CE4A-43D1-8F91-C38A7D7F4289}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B351CC03-0F37-4083-B49E-F77A65031255}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1659616C-B5A4-4B14-BDD6-AB92D4590AC6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,18 @@
   </si>
   <si>
     <t>목적지의 캐릭터가 출발위치로 움직이는것인지 확인용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬롯 오브젝트의 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slotName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -741,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DE5D1-E576-45A2-AEB3-DD5316AF17FC}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -865,14 +877,15 @@
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="I5" s="9"/>
       <c r="N5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -883,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>37</v>
@@ -900,10 +913,10 @@
         <v>39</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>37</v>
@@ -917,13 +930,13 @@
         <v>47</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -934,21 +947,21 @@
         <v>59</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N10" s="5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>46</v>
@@ -956,10 +969,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>46</v>
@@ -967,23 +980,34 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N12" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="N13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
     </row>

--- a/RiotSample0/Riot데이터.xlsx
+++ b/RiotSample0/Riot데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\RiotSample\RiotSample0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B351CC03-0F37-4083-B49E-F77A65031255}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B26E3BE-4F2F-40E0-AEF8-2227ADB72104}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1659616C-B5A4-4B14-BDD6-AB92D4590AC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1659616C-B5A4-4B14-BDD6-AB92D4590AC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,52 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyObjState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적의 상태를 나타내주는 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaycastHit</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>적의 상태를 표시함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rayHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이로 충돌된거 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rayCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이를 생성하여 거리 체크용 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적이 등속운동하게 만드는 함수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +433,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,23 +805,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811DE5D1-E576-45A2-AEB3-DD5316AF17FC}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="7" customWidth="1"/>
-    <col min="3" max="7" width="1.625" customWidth="1"/>
+    <col min="3" max="7" width="0.875" customWidth="1"/>
     <col min="8" max="8" width="16.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="46.375" style="7" customWidth="1"/>
     <col min="10" max="13" width="1.625" customWidth="1"/>
-    <col min="14" max="14" width="47" style="5" customWidth="1"/>
+    <col min="14" max="14" width="47" style="11" customWidth="1"/>
     <col min="15" max="15" width="18.625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="7"/>
+    <col min="16" max="16" width="10.25" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.25" customWidth="1"/>
     <col min="18" max="18" width="20" customWidth="1"/>
   </cols>
@@ -787,7 +839,7 @@
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -819,7 +871,7 @@
       <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -842,7 +894,7 @@
       <c r="I3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="11" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -860,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="11" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="6" t="s">
@@ -878,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="I5" s="9"/>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="11" t="s">
         <v>63</v>
       </c>
       <c r="O5" s="8" t="s">
@@ -895,7 +947,7 @@
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -912,7 +964,7 @@
       <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -929,7 +981,7 @@
       <c r="B8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -946,7 +998,7 @@
       <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="11" t="s">
         <v>43</v>
       </c>
       <c r="O9" s="8" t="s">
@@ -957,7 +1009,13 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N10" s="5" t="s">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>44</v>
       </c>
       <c r="O10" s="8" t="s">
@@ -968,7 +1026,13 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N11" s="5" t="s">
+      <c r="A11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="O11" s="8" t="s">
@@ -979,7 +1043,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N12" s="5" t="s">
+      <c r="A12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="11" t="s">
         <v>53</v>
       </c>
       <c r="O12" s="8" t="s">
@@ -990,7 +1060,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="11" t="s">
         <v>58</v>
       </c>
       <c r="O13" s="8" t="s">
@@ -1001,7 +1071,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="11" t="s">
         <v>62</v>
       </c>
       <c r="O14" s="8" t="s">
@@ -1011,8 +1081,41 @@
         <v>56</v>
       </c>
     </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P28:P33" xr:uid="{B6518C09-EE63-4B5C-9235-ED6856984968}">
+      <formula1>"int,float,string,GameObj,bool"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P22:P27" xr:uid="{20965084-6AF9-474E-9A8A-0E204359651B}">
+      <formula1>"int,float,string,GameObj,bool,Collider"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P21" xr:uid="{666BD98D-2949-4DD7-A837-04A341631E85}">
+      <formula1>"int,float,string,GameObj,bool,Collider,enum,RaycastHit"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
